--- a/output/MOMENTUM/rebalance/rebalance_20240430.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240430.xlsx
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02807970486737795</v>
+        <v>0.02806079821186336</v>
       </c>
       <c r="C5" t="n">
         <v>0.02132430865795036</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.006755396209427594</v>
+        <v>-0.006736489553912997</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02545818047859713</v>
+        <v>0.02544231713392069</v>
       </c>
       <c r="C12" t="n">
         <v>0.02078563858751339</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.004672541891083737</v>
+        <v>-0.004656678546407299</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02530069105284796</v>
+        <v>0.02528370193329145</v>
       </c>
       <c r="C24" t="n">
         <v>0.02017670720354117</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.005123983849306783</v>
+        <v>-0.005106994729750281</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02245090654606453</v>
+        <v>0.02243709030109204</v>
       </c>
       <c r="C25" t="n">
         <v>0.01991908238724523</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002531824158819303</v>
+        <v>-0.002518007913846806</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02212702736912187</v>
+        <v>0.02211326991672365</v>
       </c>
       <c r="C30" t="n">
         <v>0.01969658822771692</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002430439141404953</v>
+        <v>-0.002416681689006734</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0205778977743205</v>
+        <v>0.02056476726534501</v>
       </c>
       <c r="C32" t="n">
         <v>0.01960290647633658</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0009749912979839237</v>
+        <v>-0.0009618607890084369</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02177975757256336</v>
+        <v>0.02176594456553681</v>
       </c>
       <c r="C33" t="n">
         <v>0.01956777581956895</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002211981752994408</v>
+        <v>-0.002198168745967861</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7041,13 +7041,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02372044826119855</v>
+        <v>0.0237056642651407</v>
       </c>
       <c r="C39" t="n">
         <v>0.01922817947081521</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.004492268790383336</v>
+        <v>-0.004477484794325484</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02157026669716228</v>
+        <v>0.02155673494320869</v>
       </c>
       <c r="C40" t="n">
         <v>0.01919304881404758</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.002377217883114697</v>
+        <v>-0.002363686129161102</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7083,13 +7083,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01930154896297138</v>
+        <v>0.01929006644360055</v>
       </c>
       <c r="C41" t="n">
         <v>0.01915791815727995</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0001436308056914325</v>
+        <v>-0.0001321482863206012</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02117862042056055</v>
+        <v>0.02116560539264074</v>
       </c>
       <c r="C43" t="n">
         <v>0.01909936706266724</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002079253357893312</v>
+        <v>-0.002066238329973498</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02207434742191554</v>
+        <v>0.02206086673720023</v>
       </c>
       <c r="C45" t="n">
         <v>0.01905252618697707</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.003021821234938469</v>
+        <v>-0.003008340550223164</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02230467995406001</v>
+        <v>0.02229106173619025</v>
       </c>
       <c r="C50" t="n">
         <v>0.01883003202744876</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00347464792661125</v>
+        <v>-0.00346102970874149</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7293,13 +7293,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02244628402989456</v>
+        <v>0.02243241353082754</v>
       </c>
       <c r="C51" t="n">
         <v>0.01881832180852621</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.003627962221368342</v>
+        <v>-0.003614091722301326</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01847971951278225</v>
+        <v>0.0184685713835715</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01847971951278225</v>
+        <v>-0.0184685713835715</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01741993943082426</v>
+        <v>0.01740924259753434</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01741993943082426</v>
+        <v>-0.01740924259753434</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01879835874965458</v>
+        <v>0.01878668763336419</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01879835874965458</v>
+        <v>-0.01878668763336419</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01841683654190545</v>
+        <v>0.01902313754507128</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01841683654190545</v>
+        <v>-0.01902313754507128</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02422722636943327</v>
+        <v>0.02421189758170808</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02422722636943327</v>
+        <v>-0.02421189758170808</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01813110366410702</v>
+        <v>0.01812002662643189</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01813110366410702</v>
+        <v>-0.01812002662643189</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01995705541301814</v>
+        <v>0.01994495925106772</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01995705541301814</v>
+        <v>-0.01994495925106772</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01783198743172133</v>
+        <v>0.01782119256976167</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01783198743172133</v>
+        <v>-0.01782119256976167</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01821889807196691</v>
+        <v>0.01820791145814464</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01821889807196691</v>
+        <v>-0.01820791145814464</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01913637562433299</v>
+        <v>0.01912518037749599</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01913637562433299</v>
+        <v>-0.01912518037749599</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02094078709421663</v>
+        <v>0.02092776233197179</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02094078709421663</v>
+        <v>-0.02092776233197179</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01932186819399628</v>
+        <v>0.01930936469333281</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01932186819399628</v>
+        <v>-0.01930936469333281</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02163924367978822</v>
+        <v>0.02162485077789357</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02163924367978822</v>
+        <v>-0.02162485077789357</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01913387600796102</v>
+        <v>0.01912143753864992</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01913387600796102</v>
+        <v>-0.01912143753864992</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01799547526081736</v>
+        <v>0.01798439348002547</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01799547526081736</v>
+        <v>-0.01798439348002547</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01749722774653524</v>
+        <v>0.01748644020822476</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01749722774653524</v>
+        <v>-0.01748644020822476</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01572767521359081</v>
+        <v>0.01571821052660301</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01572767521359081</v>
+        <v>-0.01571821052660301</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01771339830812444</v>
+        <v>0.01770255012633527</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01771339830812444</v>
+        <v>-0.01770255012633527</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02065512339113231</v>
+        <v>0.02064257340767863</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02065512339113231</v>
+        <v>-0.02064257340767863</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01910214019047465</v>
+        <v>0.01909062459436475</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01910214019047465</v>
+        <v>-0.01909062459436475</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01837173737506823</v>
+        <v>0.01836125481233415</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01837173737506823</v>
+        <v>-0.01836125481233415</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01779952761207545</v>
+        <v>0.01778897545873271</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01779952761207545</v>
+        <v>-0.01778897545873271</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01783212978158219</v>
+        <v>0.01782118776445278</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01783212978158219</v>
+        <v>-0.01782118776445278</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01799857848162681</v>
+        <v>0.01798770097257836</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01799857848162681</v>
+        <v>-0.01798770097257836</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01983133822834056</v>
+        <v>0.01981924854459397</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01983133822834056</v>
+        <v>-0.01981924854459397</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02029289154030183</v>
+        <v>0.02028067586540384</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02029289154030183</v>
+        <v>-0.02028067586540384</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01995772359876619</v>
+        <v>0.01994557590475679</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01995772359876619</v>
+        <v>-0.01994557590475679</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02033464921525101</v>
+        <v>0.02032233566878289</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02033464921525101</v>
+        <v>-0.02032233566878289</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02208266559334159</v>
+        <v>0.02206908659319488</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02208266559334159</v>
+        <v>-0.02206908659319488</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01642651605141689</v>
+        <v>0.01641656395704845</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01642651605141689</v>
+        <v>-0.01641656395704845</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01819799430178628</v>
+        <v>0.0181869739210356</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01819799430178628</v>
+        <v>-0.0181869739210356</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01618076907765459</v>
+        <v>0.01617100200242498</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01618076907765459</v>
+        <v>-0.01617100200242498</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01901315518346393</v>
+        <v>0.01900136058167253</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01901315518346393</v>
+        <v>-0.01900136058167253</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02081922260610236</v>
+        <v>0.02080623759707998</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02081922260610236</v>
+        <v>-0.02080623759707998</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01696297449734834</v>
+        <v>0.01695275280103771</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01696297449734834</v>
+        <v>-0.01695275280103771</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01918344955083449</v>
+        <v>0.01917175046905743</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01918344955083449</v>
+        <v>-0.01917175046905743</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20240430.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240430.xlsx
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02806079821186336</v>
+        <v>0.02812692161130458</v>
       </c>
       <c r="C5" t="n">
         <v>0.02132430865795036</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.006736489553912997</v>
+        <v>-0.006802612953354222</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02544231713392069</v>
+        <v>0.0255009890620268</v>
       </c>
       <c r="C12" t="n">
         <v>0.02078563858751339</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.004656678546407299</v>
+        <v>-0.004715350474513408</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02528370193329145</v>
+        <v>0.02534323481376891</v>
       </c>
       <c r="C24" t="n">
         <v>0.02017670720354117</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.005106994729750281</v>
+        <v>-0.005166527610227737</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02243709030109204</v>
+        <v>0.02248865832124566</v>
       </c>
       <c r="C25" t="n">
         <v>0.01991908238724523</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002518007913846806</v>
+        <v>-0.002569575934000434</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02211326991672365</v>
+        <v>0.02216423453316007</v>
       </c>
       <c r="C30" t="n">
         <v>0.01969658822771692</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002416681689006734</v>
+        <v>-0.002467646305443154</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02056476726534501</v>
+        <v>0.02038704106449254</v>
       </c>
       <c r="C32" t="n">
         <v>0.01960290647633658</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0009618607890084369</v>
+        <v>-0.0007841345881559672</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02176594456553681</v>
+        <v>0.02181638079353183</v>
       </c>
       <c r="C33" t="n">
         <v>0.01956777581956895</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002198168745967861</v>
+        <v>-0.002248604973962884</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -7041,13 +7041,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0237056642651407</v>
+        <v>0.02376033480333506</v>
       </c>
       <c r="C39" t="n">
         <v>0.01922817947081521</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.004477484794325484</v>
+        <v>-0.004532155332519851</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02155673494320869</v>
+        <v>0.02138042272491507</v>
       </c>
       <c r="C40" t="n">
         <v>0.01919304881404758</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.002363686129161102</v>
+        <v>-0.002187373910867488</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7083,13 +7083,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01929006644360055</v>
+        <v>0.0193340050126014</v>
       </c>
       <c r="C41" t="n">
         <v>0.01915791815727995</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0001321482863206012</v>
+        <v>-0.000176086855321448</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7125,13 +7125,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02116560539264074</v>
+        <v>0.02121423281398988</v>
       </c>
       <c r="C43" t="n">
         <v>0.01909936706266724</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002066238329973498</v>
+        <v>-0.00211486575132264</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02206086673720023</v>
+        <v>0.02211146600327136</v>
       </c>
       <c r="C45" t="n">
         <v>0.01905252618697707</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.003008340550223164</v>
+        <v>-0.003058939816294289</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02229106173619025</v>
+        <v>0.02234218584547625</v>
       </c>
       <c r="C50" t="n">
         <v>0.01883003202744876</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00346102970874149</v>
+        <v>-0.003512153818027497</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7293,13 +7293,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02243241353082754</v>
+        <v>0.0224840280321962</v>
       </c>
       <c r="C51" t="n">
         <v>0.01881832180852621</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.003614091722301326</v>
+        <v>-0.003665706223669983</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0184685713835715</v>
+        <v>0.01851079363511338</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0184685713835715</v>
+        <v>-0.01851079363511338</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01740924259753434</v>
+        <v>0.0174492315057662</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01740924259753434</v>
+        <v>-0.0174492315057662</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01878668763336419</v>
+        <v>0.018829968672035</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01878668763336419</v>
+        <v>-0.018829968672035</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01902313754507128</v>
+        <v>0.0178290106297331</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01902313754507128</v>
+        <v>-0.0178290106297331</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02421189758170808</v>
+        <v>0.0242679650719567</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02421189758170808</v>
+        <v>-0.0242679650719567</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01812002662643189</v>
+        <v>0.01816159157994723</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01812002662643189</v>
+        <v>-0.01816159157994723</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01994495925106772</v>
+        <v>0.01999061371355643</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01994495925106772</v>
+        <v>-0.01999061371355643</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01782119256976167</v>
+        <v>0.01786197237594503</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01782119256976167</v>
+        <v>-0.01786197237594503</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01820791145814464</v>
+        <v>0.01824953361635573</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01820791145814464</v>
+        <v>-0.01824953361635573</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01912518037749599</v>
+        <v>0.01916855393075768</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01912518037749599</v>
+        <v>-0.01916855393075768</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02092776233197179</v>
+        <v>0.02097599956480773</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02092776233197179</v>
+        <v>-0.02097599956480773</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01930936469333281</v>
+        <v>0.01935435841093439</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01930936469333281</v>
+        <v>-0.01935435841093439</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02162485077789357</v>
+        <v>0.02167563062304207</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02162485077789357</v>
+        <v>-0.02167563062304207</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01912143753864992</v>
+        <v>0.01916605011121668</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01912143753864992</v>
+        <v>-0.01916605011121668</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01798439348002547</v>
+        <v>0.01802573511401884</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01798439348002547</v>
+        <v>-0.01802573511401884</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01748644020822476</v>
+        <v>0.01752664978376233</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01748644020822476</v>
+        <v>-0.01752664978376233</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01571821052660301</v>
+        <v>0.01575412170284803</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01571821052660301</v>
+        <v>-0.01575412170284803</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01770255012633527</v>
+        <v>0.01774318384169522</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01770255012633527</v>
+        <v>-0.01774318384169522</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02064257340767863</v>
+        <v>0.02068985551087994</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02064257340767863</v>
+        <v>-0.02068985551087994</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01909062459436475</v>
+        <v>0.01913426092913925</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01909062459436475</v>
+        <v>-0.01913426092913925</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01836125481233415</v>
+        <v>0.01779147247135903</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01836125481233415</v>
+        <v>-0.01779147247135903</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01778897545873271</v>
+        <v>0.0178294579742799</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01778897545873271</v>
+        <v>-0.0178294579742799</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01782118776445278</v>
+        <v>0.01786211496517083</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01782118776445278</v>
+        <v>-0.01786211496517083</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01798770097257836</v>
+        <v>0.01802884355297368</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01798770097257836</v>
+        <v>-0.01802884355297368</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01981924854459397</v>
+        <v>0.01986468513220842</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01981924854459397</v>
+        <v>-0.01986468513220842</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.02028067586540384</v>
+        <v>0.0203270145579017</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02028067586540384</v>
+        <v>-0.0203270145579017</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01994557590475679</v>
+        <v>0.01999128302287594</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01994557590475679</v>
+        <v>-0.01999128302287594</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02032233566878289</v>
+        <v>0.02036884244945231</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02032233566878289</v>
+        <v>-0.02036884244945231</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02206908659319488</v>
+        <v>0.02211979816191603</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02206908659319488</v>
+        <v>-0.02211979816191603</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01641656395704845</v>
+        <v>0.01645413765946687</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01641656395704845</v>
+        <v>-0.01645413765946687</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0181869739210356</v>
+        <v>0.01822859469594938</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0181869739210356</v>
+        <v>-0.01822859469594938</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01617100200242498</v>
+        <v>0.01620797745586525</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01617100200242498</v>
+        <v>-0.01620797745586525</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01900136058167253</v>
+        <v>0.01904512629155694</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01900136058167253</v>
+        <v>-0.01904512629155694</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02080623759707998</v>
+        <v>0.02085423066288879</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02080623759707998</v>
+        <v>-0.02085423066288879</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01695275280103771</v>
+        <v>0.01699149817403433</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01695275280103771</v>
+        <v>-0.01699149817403433</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01917175046905743</v>
+        <v>0.01921570701327397</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01917175046905743</v>
+        <v>-0.01921570701327397</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
